--- a/data/pca/factorExposure/factorExposure_2017-10-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02385288917863352</v>
+        <v>-0.01274838032116825</v>
       </c>
       <c r="C2">
-        <v>0.00169189186919199</v>
+        <v>0.03790697919349276</v>
       </c>
       <c r="D2">
-        <v>-0.01776748552988015</v>
+        <v>0.02865938667690371</v>
       </c>
       <c r="E2">
-        <v>0.01421988757596207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03230304071200004</v>
+      </c>
+      <c r="F2">
+        <v>-0.01905380456373151</v>
+      </c>
+      <c r="G2">
+        <v>-0.02252485547690879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01173682411926293</v>
+        <v>-0.05171722504266402</v>
       </c>
       <c r="C3">
-        <v>0.04578979664734753</v>
+        <v>0.07513892542648294</v>
       </c>
       <c r="D3">
-        <v>-0.01642671415120863</v>
+        <v>0.01462616319596289</v>
       </c>
       <c r="E3">
-        <v>0.01159689745040709</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.08860436328123297</v>
+      </c>
+      <c r="F3">
+        <v>-0.06196689050504985</v>
+      </c>
+      <c r="G3">
+        <v>-0.07365378831554664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02194667759024288</v>
+        <v>-0.05586166352447614</v>
       </c>
       <c r="C4">
-        <v>0.01869594281868338</v>
+        <v>0.06114212466214947</v>
       </c>
       <c r="D4">
-        <v>-0.0616776468366419</v>
+        <v>0.02260117743839181</v>
       </c>
       <c r="E4">
-        <v>-0.0119561420549292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01427675216337755</v>
+      </c>
+      <c r="F4">
+        <v>-0.006802968497363262</v>
+      </c>
+      <c r="G4">
+        <v>-0.04769988582567289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01476965629158722</v>
+        <v>-0.03261701594519781</v>
       </c>
       <c r="C6">
-        <v>0.02164228033859875</v>
+        <v>0.0531035153103884</v>
       </c>
       <c r="D6">
-        <v>-0.0831269591195333</v>
+        <v>0.01600648857776205</v>
       </c>
       <c r="E6">
-        <v>0.001053196130458846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.009635110931580563</v>
+      </c>
+      <c r="F6">
+        <v>-0.007759266569798085</v>
+      </c>
+      <c r="G6">
+        <v>-0.02786202603316845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01031847300002078</v>
+        <v>-0.02010189071225818</v>
       </c>
       <c r="C7">
-        <v>0.006444906533969859</v>
+        <v>0.03585552183016626</v>
       </c>
       <c r="D7">
-        <v>-0.03932837257650533</v>
+        <v>0.01259917451905857</v>
       </c>
       <c r="E7">
-        <v>-0.06809837473478422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01069817009150566</v>
+      </c>
+      <c r="F7">
+        <v>-0.002872207682213908</v>
+      </c>
+      <c r="G7">
+        <v>-0.07869399847836116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>4.720323638854659e-05</v>
+        <v>0.001588292645814082</v>
       </c>
       <c r="C8">
-        <v>-0.007408528851342885</v>
+        <v>0.01481040811380459</v>
       </c>
       <c r="D8">
-        <v>-0.01742513569921123</v>
+        <v>0.003689812858907411</v>
       </c>
       <c r="E8">
-        <v>-0.004603507003393167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01075227966288632</v>
+      </c>
+      <c r="F8">
+        <v>-0.02072699324193963</v>
+      </c>
+      <c r="G8">
+        <v>-0.02140386568483731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01438799311953422</v>
+        <v>-0.02887572834726652</v>
       </c>
       <c r="C9">
-        <v>0.01823307151325346</v>
+        <v>0.04260974787551233</v>
       </c>
       <c r="D9">
-        <v>-0.04500634353058112</v>
+        <v>0.01581917740102749</v>
       </c>
       <c r="E9">
-        <v>-0.00234441025640104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01568774314766497</v>
+      </c>
+      <c r="F9">
+        <v>-0.01265443888071411</v>
+      </c>
+      <c r="G9">
+        <v>-0.03868040733909588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.008582576669488352</v>
+        <v>-0.0909065764993226</v>
       </c>
       <c r="C10">
-        <v>0.1468416464446148</v>
+        <v>-0.1853936852824823</v>
       </c>
       <c r="D10">
-        <v>0.1326734496349202</v>
+        <v>-0.01907294508064266</v>
       </c>
       <c r="E10">
-        <v>-0.0172919497714612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01663647265853562</v>
+      </c>
+      <c r="F10">
+        <v>0.01504878011816013</v>
+      </c>
+      <c r="G10">
+        <v>-0.03938679840594875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>8.755778466293592e-05</v>
+        <v>-0.03478389038067824</v>
       </c>
       <c r="C11">
-        <v>0.006214674439958561</v>
+        <v>0.05395403142344929</v>
       </c>
       <c r="D11">
-        <v>-0.04522236740546092</v>
+        <v>0.00188705118853608</v>
       </c>
       <c r="E11">
-        <v>0.0128879574607195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.003038630601053075</v>
+      </c>
+      <c r="F11">
+        <v>-0.01920223150178359</v>
+      </c>
+      <c r="G11">
+        <v>-0.02166427776333187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005335550817102723</v>
+        <v>-0.03233791596383952</v>
       </c>
       <c r="C12">
-        <v>0.01489265448528229</v>
+        <v>0.04507795812491679</v>
       </c>
       <c r="D12">
-        <v>-0.04752470580711443</v>
+        <v>0.005807172128723437</v>
       </c>
       <c r="E12">
-        <v>0.004427915773431328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.003743841528980892</v>
+      </c>
+      <c r="F12">
+        <v>-0.004367069112859188</v>
+      </c>
+      <c r="G12">
+        <v>-0.02523148774176965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02125500757380903</v>
+        <v>-0.01354340239629431</v>
       </c>
       <c r="C13">
-        <v>0.01525246795928961</v>
+        <v>0.03230245239419594</v>
       </c>
       <c r="D13">
-        <v>-0.01085423842695314</v>
+        <v>0.02486053348479049</v>
       </c>
       <c r="E13">
-        <v>0.008767192629238873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02486274031399661</v>
+      </c>
+      <c r="F13">
+        <v>-0.01241387661469101</v>
+      </c>
+      <c r="G13">
+        <v>-0.03200496267823658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006936854477433251</v>
+        <v>-0.009058643180927745</v>
       </c>
       <c r="C14">
-        <v>0.01267975832896202</v>
+        <v>0.02666876237658832</v>
       </c>
       <c r="D14">
-        <v>-0.01785557707146265</v>
+        <v>0.008518677182818967</v>
       </c>
       <c r="E14">
-        <v>-0.00924600291987494</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.004752214511978777</v>
+      </c>
+      <c r="F14">
+        <v>0.001498276547596615</v>
+      </c>
+      <c r="G14">
+        <v>-0.03905924541749282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0005136580864171972</v>
+        <v>-0.03209704365556091</v>
       </c>
       <c r="C16">
-        <v>0.01162513879020574</v>
+        <v>0.0436511387142623</v>
       </c>
       <c r="D16">
-        <v>-0.05189837596129262</v>
+        <v>0.001354004962657348</v>
       </c>
       <c r="E16">
-        <v>0.00757019053153281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.005361530988449686</v>
+      </c>
+      <c r="F16">
+        <v>-0.00904568793223356</v>
+      </c>
+      <c r="G16">
+        <v>-0.02346281875042017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01256918094214311</v>
+        <v>-0.02992337126988522</v>
       </c>
       <c r="C19">
-        <v>0.02481194235069957</v>
+        <v>0.05160138376757704</v>
       </c>
       <c r="D19">
-        <v>-0.0277299699190429</v>
+        <v>0.01576619222228404</v>
       </c>
       <c r="E19">
-        <v>-0.003702195485677115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05061507108910097</v>
+      </c>
+      <c r="F19">
+        <v>-0.0286756762050413</v>
+      </c>
+      <c r="G19">
+        <v>-0.04645082592457654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01039789759409897</v>
+        <v>-0.0123190922039555</v>
       </c>
       <c r="C20">
-        <v>0.005686510385140912</v>
+        <v>0.03485858029460711</v>
       </c>
       <c r="D20">
-        <v>-0.01554133313148722</v>
+        <v>0.0132160127082836</v>
       </c>
       <c r="E20">
-        <v>0.002666479809980838</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.0243813976914389</v>
+      </c>
+      <c r="F20">
+        <v>0.001959077104778283</v>
+      </c>
+      <c r="G20">
+        <v>-0.03727417434758421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01345250721394022</v>
+        <v>-0.01595502274881313</v>
       </c>
       <c r="C21">
-        <v>0.03613275626436645</v>
+        <v>0.03382137098082719</v>
       </c>
       <c r="D21">
-        <v>-0.01544141609605315</v>
+        <v>0.01609821719553117</v>
       </c>
       <c r="E21">
-        <v>-0.01813688988953796</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03244375859154618</v>
+      </c>
+      <c r="F21">
+        <v>-0.009995151305221422</v>
+      </c>
+      <c r="G21">
+        <v>-0.05923875282443544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004669491757200339</v>
+        <v>-0.02668974920214079</v>
       </c>
       <c r="C24">
-        <v>0.007053454847336662</v>
+        <v>0.04665612949453773</v>
       </c>
       <c r="D24">
-        <v>-0.04567810349907785</v>
+        <v>0.006634372891354076</v>
       </c>
       <c r="E24">
-        <v>0.007652404669381467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.001537229081723541</v>
+      </c>
+      <c r="F24">
+        <v>-0.01519768569009228</v>
+      </c>
+      <c r="G24">
+        <v>-0.02489172421447238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01084278031396887</v>
+        <v>-0.04350750708860537</v>
       </c>
       <c r="C25">
-        <v>0.02410139312673962</v>
+        <v>0.05374326233291399</v>
       </c>
       <c r="D25">
-        <v>-0.04439171564315088</v>
+        <v>0.01052181056125584</v>
       </c>
       <c r="E25">
-        <v>0.006973895439071493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.006386465174391251</v>
+      </c>
+      <c r="F25">
+        <v>-0.009777482390104487</v>
+      </c>
+      <c r="G25">
+        <v>-0.03091372137149562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02277139082424338</v>
+        <v>-0.01004154869732504</v>
       </c>
       <c r="C26">
-        <v>0.008599701319949034</v>
+        <v>0.009632143936068373</v>
       </c>
       <c r="D26">
-        <v>0.003439253816136779</v>
+        <v>0.02358451887356889</v>
       </c>
       <c r="E26">
-        <v>-0.007267503869060936</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.0100311784776524</v>
+      </c>
+      <c r="F26">
+        <v>-0.0001266209744154417</v>
+      </c>
+      <c r="G26">
+        <v>-0.02859211437202377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02560091468959739</v>
+        <v>-0.1146492916680313</v>
       </c>
       <c r="C28">
-        <v>0.2172275340523622</v>
+        <v>-0.2273788895610711</v>
       </c>
       <c r="D28">
-        <v>0.1894514522261348</v>
+        <v>-0.009991564929006207</v>
       </c>
       <c r="E28">
-        <v>-0.02861737251185343</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.003574962664312028</v>
+      </c>
+      <c r="F28">
+        <v>0.01435786521474639</v>
+      </c>
+      <c r="G28">
+        <v>-0.05897161688881378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007104286717488091</v>
+        <v>-0.01421948147322205</v>
       </c>
       <c r="C29">
-        <v>0.0177305589756868</v>
+        <v>0.02054581850146441</v>
       </c>
       <c r="D29">
-        <v>-0.01480915700827964</v>
+        <v>0.007153469758541696</v>
       </c>
       <c r="E29">
-        <v>-0.00489565852316914</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.004758651614653601</v>
+      </c>
+      <c r="F29">
+        <v>0.01232477556152608</v>
+      </c>
+      <c r="G29">
+        <v>-0.02896206567460032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02362102832713874</v>
+        <v>-0.04624780699250415</v>
       </c>
       <c r="C30">
-        <v>0.007989535521434266</v>
+        <v>0.06851412952788327</v>
       </c>
       <c r="D30">
-        <v>-0.06458122027299582</v>
+        <v>0.02698650494189602</v>
       </c>
       <c r="E30">
-        <v>0.06362479599780066</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.03965229915965784</v>
+      </c>
+      <c r="F30">
+        <v>-0.0426020625264471</v>
+      </c>
+      <c r="G30">
+        <v>-0.006101011953243484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.006623328320111904</v>
+        <v>-0.04519304167027884</v>
       </c>
       <c r="C31">
-        <v>0.04641734704435502</v>
+        <v>0.03161781738253269</v>
       </c>
       <c r="D31">
-        <v>-0.04176659292717117</v>
+        <v>0.00338680403198318</v>
       </c>
       <c r="E31">
-        <v>-0.001265934948689374</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008324751785268817</v>
+      </c>
+      <c r="F31">
+        <v>0.03643526886495788</v>
+      </c>
+      <c r="G31">
+        <v>-0.02645240832331075</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007085577838370638</v>
+        <v>-0.002663429065286479</v>
       </c>
       <c r="C32">
-        <v>0.01535714186645627</v>
+        <v>0.03608492571928573</v>
       </c>
       <c r="D32">
-        <v>-0.007613454483686427</v>
+        <v>-0.003984408602120448</v>
       </c>
       <c r="E32">
-        <v>-0.02550244086926923</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.0134290837369524</v>
+      </c>
+      <c r="F32">
+        <v>-0.05339102165508537</v>
+      </c>
+      <c r="G32">
+        <v>-0.05655116462382306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01191685280482197</v>
+        <v>-0.02758043042134579</v>
       </c>
       <c r="C33">
-        <v>0.0230935873239708</v>
+        <v>0.04982222129554388</v>
       </c>
       <c r="D33">
-        <v>-0.02394624219097454</v>
+        <v>0.01434125017766267</v>
       </c>
       <c r="E33">
-        <v>0.02647034536497894</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02396816546320173</v>
+      </c>
+      <c r="F33">
+        <v>-0.02522929498448398</v>
+      </c>
+      <c r="G33">
+        <v>-0.0329712226657761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005201848595574329</v>
+        <v>-0.04435014428250923</v>
       </c>
       <c r="C34">
-        <v>0.01948376210883604</v>
+        <v>0.05503732207561581</v>
       </c>
       <c r="D34">
-        <v>-0.05040762917002976</v>
+        <v>-0.005386064658122914</v>
       </c>
       <c r="E34">
-        <v>-0.0006522987811861215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.007717020460443855</v>
+      </c>
+      <c r="F34">
+        <v>-0.01958792126298851</v>
+      </c>
+      <c r="G34">
+        <v>-0.03686689612303557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01151504715405443</v>
+        <v>-0.0112924952846947</v>
       </c>
       <c r="C36">
-        <v>0.01734709761449656</v>
+        <v>0.006779505090698123</v>
       </c>
       <c r="D36">
-        <v>-0.002307803332625574</v>
+        <v>0.0113258762491039</v>
       </c>
       <c r="E36">
-        <v>-0.001753188005905277</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004521837647084528</v>
+      </c>
+      <c r="F36">
+        <v>0.003848537249189226</v>
+      </c>
+      <c r="G36">
+        <v>-0.02403905525390083</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006556537378238041</v>
+        <v>-0.03180348464700904</v>
       </c>
       <c r="C38">
-        <v>0.02643748179100602</v>
+        <v>0.02585895105458257</v>
       </c>
       <c r="D38">
-        <v>-0.02519882052397027</v>
+        <v>-0.007789117555679653</v>
       </c>
       <c r="E38">
-        <v>0.0002466772431453405</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003448895561842566</v>
+      </c>
+      <c r="F38">
+        <v>0.003679328492330243</v>
+      </c>
+      <c r="G38">
+        <v>-0.03258398641254558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005833320115103575</v>
+        <v>-0.03345126346453151</v>
       </c>
       <c r="C39">
-        <v>-0.01648796932285993</v>
+        <v>0.08112089097941004</v>
       </c>
       <c r="D39">
-        <v>-0.09703658548307501</v>
+        <v>0.01201373350073581</v>
       </c>
       <c r="E39">
-        <v>0.0154416196096813</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02448018438479227</v>
+      </c>
+      <c r="F39">
+        <v>-0.03632058244122902</v>
+      </c>
+      <c r="G39">
+        <v>-0.02757749118500527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.010489805741768</v>
+        <v>-0.02154688520164635</v>
       </c>
       <c r="C40">
-        <v>0.01781349661481136</v>
+        <v>0.03033256690362971</v>
       </c>
       <c r="D40">
-        <v>-0.04029056393643305</v>
+        <v>0.01288855893712039</v>
       </c>
       <c r="E40">
-        <v>0.01160266547033279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01881519002263946</v>
+      </c>
+      <c r="F40">
+        <v>-0.01862862862395113</v>
+      </c>
+      <c r="G40">
+        <v>-0.02384700504392785</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004855815051095396</v>
+        <v>-0.01250175750997149</v>
       </c>
       <c r="C41">
-        <v>0.01985140414130802</v>
+        <v>-0.00118924323758428</v>
       </c>
       <c r="D41">
-        <v>0.00683880911035148</v>
+        <v>0.003496988249895352</v>
       </c>
       <c r="E41">
-        <v>-0.002517454524449194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0008967388792214852</v>
+      </c>
+      <c r="F41">
+        <v>0.001916694072634816</v>
+      </c>
+      <c r="G41">
+        <v>-0.01565312554242943</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09078578138292805</v>
+        <v>-0.02064279074615728</v>
       </c>
       <c r="C42">
-        <v>0.00454871626234826</v>
+        <v>0.04699468594511137</v>
       </c>
       <c r="D42">
-        <v>-0.2279015096182011</v>
+        <v>0.09717356706269738</v>
       </c>
       <c r="E42">
-        <v>0.2843676175237724</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.04309780463993888</v>
+      </c>
+      <c r="F42">
+        <v>0.04703612564282419</v>
+      </c>
+      <c r="G42">
+        <v>0.1814205380962808</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005745749109929017</v>
+        <v>-0.02847462497081699</v>
       </c>
       <c r="C43">
-        <v>0.02025222229256653</v>
+        <v>0.007907362706234924</v>
       </c>
       <c r="D43">
-        <v>0.01219903227928891</v>
+        <v>0.003769376017891957</v>
       </c>
       <c r="E43">
-        <v>0.000925134488363796</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.006527325031051389</v>
+      </c>
+      <c r="F43">
+        <v>0.003186500630601627</v>
+      </c>
+      <c r="G43">
+        <v>-0.0217110114837336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.00290911498481581</v>
+        <v>-0.01532609035642032</v>
       </c>
       <c r="C44">
-        <v>-0.002329783877446764</v>
+        <v>0.04879106679116672</v>
       </c>
       <c r="D44">
-        <v>-0.02936835485632935</v>
+        <v>0.006646718310700493</v>
       </c>
       <c r="E44">
-        <v>-0.002177589400742282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01573945096653815</v>
+      </c>
+      <c r="F44">
+        <v>-0.01299278354679837</v>
+      </c>
+      <c r="G44">
+        <v>-0.03846810293220317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01039161890222292</v>
+        <v>-0.005583088431358348</v>
       </c>
       <c r="C46">
-        <v>0.0170077102418523</v>
+        <v>0.01695950952427731</v>
       </c>
       <c r="D46">
-        <v>-0.01791441336602767</v>
+        <v>0.01164620048838295</v>
       </c>
       <c r="E46">
-        <v>0.004033000034410841</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0005448338070822868</v>
+      </c>
+      <c r="F46">
+        <v>0.01451447929495753</v>
+      </c>
+      <c r="G46">
+        <v>-0.02596630943154324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0001840559930899223</v>
+        <v>-0.07340826310579722</v>
       </c>
       <c r="C47">
-        <v>0.06013857815619625</v>
+        <v>0.06405775969538821</v>
       </c>
       <c r="D47">
-        <v>-0.04911151199435825</v>
+        <v>-0.004973081006168504</v>
       </c>
       <c r="E47">
-        <v>0.008262998810042813</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01467527476038175</v>
+      </c>
+      <c r="F47">
+        <v>0.05534148449544186</v>
+      </c>
+      <c r="G47">
+        <v>-0.0244985535913493</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002327891905080892</v>
+        <v>-0.02185035957732963</v>
       </c>
       <c r="C48">
-        <v>0.02755744223547528</v>
+        <v>0.009150483289635268</v>
       </c>
       <c r="D48">
-        <v>-0.01110436173723539</v>
+        <v>0.0005668223898396053</v>
       </c>
       <c r="E48">
-        <v>0.0009294901033649501</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.001516397579241605</v>
+      </c>
+      <c r="F48">
+        <v>0.01588130791307939</v>
+      </c>
+      <c r="G48">
+        <v>-0.02872001743103029</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.001762844599337057</v>
+        <v>-0.08013996496282988</v>
       </c>
       <c r="C50">
-        <v>0.05095408699611753</v>
+        <v>0.06589809369752962</v>
       </c>
       <c r="D50">
-        <v>-0.06289200809283195</v>
+        <v>-0.00375511309323055</v>
       </c>
       <c r="E50">
-        <v>-0.01703893316898787</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01169037334895325</v>
+      </c>
+      <c r="F50">
+        <v>0.05717583910098731</v>
+      </c>
+      <c r="G50">
+        <v>-0.04728929189350631</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.00692756872779267</v>
+        <v>-0.0118498631373473</v>
       </c>
       <c r="C51">
-        <v>0.02007897309643383</v>
+        <v>0.02760456030666241</v>
       </c>
       <c r="D51">
-        <v>0.01207549081059874</v>
+        <v>0.008957293421397221</v>
       </c>
       <c r="E51">
-        <v>-0.009357946398460725</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01103636706635319</v>
+      </c>
+      <c r="F51">
+        <v>-0.02588086458152436</v>
+      </c>
+      <c r="G51">
+        <v>-0.0523550685683238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.00294266534561374</v>
+        <v>-0.09310650632055756</v>
       </c>
       <c r="C53">
-        <v>0.08304255093761229</v>
+        <v>0.08047727291530571</v>
       </c>
       <c r="D53">
-        <v>-0.1046444176746723</v>
+        <v>-0.005356028447824962</v>
       </c>
       <c r="E53">
-        <v>0.006190963852361469</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04007822082181103</v>
+      </c>
+      <c r="F53">
+        <v>0.0650957373526219</v>
+      </c>
+      <c r="G53">
+        <v>-0.02507401378491949</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001560774608107558</v>
+        <v>-0.02997698560688375</v>
       </c>
       <c r="C54">
-        <v>0.03420341357846261</v>
+        <v>0.007400343063450162</v>
       </c>
       <c r="D54">
-        <v>0.009855366058624436</v>
+        <v>-0.00338662503111336</v>
       </c>
       <c r="E54">
-        <v>-0.01123938407018358</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.005868155514653206</v>
+      </c>
+      <c r="F54">
+        <v>0.003875423819413027</v>
+      </c>
+      <c r="G54">
+        <v>-0.03413754267313776</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0008260109418363092</v>
+        <v>-0.07289441968041238</v>
       </c>
       <c r="C55">
-        <v>0.05937073492045691</v>
+        <v>0.07369474420845941</v>
       </c>
       <c r="D55">
-        <v>-0.09003258977555571</v>
+        <v>-0.004528377890988124</v>
       </c>
       <c r="E55">
-        <v>0.01662483537922335</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02937024179967257</v>
+      </c>
+      <c r="F55">
+        <v>0.05878977715099804</v>
+      </c>
+      <c r="G55">
+        <v>-0.01091144377906925</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0004659619102742703</v>
+        <v>-0.1428381864897048</v>
       </c>
       <c r="C56">
-        <v>0.1043756619741388</v>
+        <v>0.104064763696936</v>
       </c>
       <c r="D56">
-        <v>-0.1333302429175951</v>
+        <v>-0.01360924836009945</v>
       </c>
       <c r="E56">
-        <v>0.01870757514150802</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04337484792558112</v>
+      </c>
+      <c r="F56">
+        <v>0.0934663874319944</v>
+      </c>
+      <c r="G56">
+        <v>0.001794201448833512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02271196021493895</v>
+        <v>-0.0116549092124167</v>
       </c>
       <c r="C57">
-        <v>0.01928527872600285</v>
+        <v>0.01078192643855938</v>
       </c>
       <c r="D57">
-        <v>-0.03819339226570058</v>
+        <v>0.02358358907575762</v>
       </c>
       <c r="E57">
-        <v>0.01255928732066098</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02813553133561235</v>
+      </c>
+      <c r="F57">
+        <v>-0.01579743991443438</v>
+      </c>
+      <c r="G57">
+        <v>-0.02024931725273774</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.008477970124773008</v>
+        <v>-0.08221717719793288</v>
       </c>
       <c r="C58">
-        <v>0.08789093163438758</v>
+        <v>0.05493963840836501</v>
       </c>
       <c r="D58">
-        <v>-0.09680385764562517</v>
+        <v>0.01857262167639035</v>
       </c>
       <c r="E58">
-        <v>0.2177512964649129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9465964225732267</v>
+      </c>
+      <c r="F58">
+        <v>0.2199143503369114</v>
+      </c>
+      <c r="G58">
+        <v>-0.0069820361015369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02192367731160742</v>
+        <v>-0.1530293836708823</v>
       </c>
       <c r="C59">
-        <v>0.226456924398928</v>
+        <v>-0.2113000490343089</v>
       </c>
       <c r="D59">
-        <v>0.188821893368658</v>
+        <v>-0.01671619199334843</v>
       </c>
       <c r="E59">
-        <v>-0.003303962160976509</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01323629423377082</v>
+      </c>
+      <c r="F59">
+        <v>-0.006002184452035003</v>
+      </c>
+      <c r="G59">
+        <v>-0.02063838377040232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02819736025701381</v>
+        <v>-0.290945049273333</v>
       </c>
       <c r="C60">
-        <v>0.1634206793031459</v>
+        <v>0.08641160565367741</v>
       </c>
       <c r="D60">
-        <v>-0.07627108769211512</v>
+        <v>0.0080339244726818</v>
       </c>
       <c r="E60">
-        <v>0.05099077091647109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.002311782381960795</v>
+      </c>
+      <c r="F60">
+        <v>-0.3721595483519953</v>
+      </c>
+      <c r="G60">
+        <v>0.07930239780185615</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002745737479618742</v>
+        <v>-0.03356001123908274</v>
       </c>
       <c r="C61">
-        <v>0.009272526580664782</v>
+        <v>0.06399885776500305</v>
       </c>
       <c r="D61">
-        <v>-0.06692773197559357</v>
+        <v>0.005240456435309108</v>
       </c>
       <c r="E61">
-        <v>0.009866045343986093</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01144774962709246</v>
+      </c>
+      <c r="F61">
+        <v>-0.01936100913153679</v>
+      </c>
+      <c r="G61">
+        <v>-0.02507172171512535</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007027224719082855</v>
+        <v>-0.01248143224523982</v>
       </c>
       <c r="C63">
-        <v>0.007449415248415832</v>
+        <v>0.02907767379375867</v>
       </c>
       <c r="D63">
-        <v>-0.01127181736536326</v>
+        <v>0.008231674418579825</v>
       </c>
       <c r="E63">
-        <v>-0.005960059751128417</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.005421438909640868</v>
+      </c>
+      <c r="F63">
+        <v>0.01860963531051484</v>
+      </c>
+      <c r="G63">
+        <v>-0.0363958474701284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006504259716061169</v>
+        <v>-0.04970459316930984</v>
       </c>
       <c r="C64">
-        <v>0.03492884890376413</v>
+        <v>0.03744279891970125</v>
       </c>
       <c r="D64">
-        <v>-0.06461334362003575</v>
+        <v>0.004870374384732887</v>
       </c>
       <c r="E64">
-        <v>0.01342124475187837</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.004177120139142995</v>
+      </c>
+      <c r="F64">
+        <v>-0.004142366901005699</v>
+      </c>
+      <c r="G64">
+        <v>-0.02232598464604362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01712388370672879</v>
+        <v>-0.08481170292567256</v>
       </c>
       <c r="C65">
-        <v>0.02813532235619158</v>
+        <v>0.06353285642953604</v>
       </c>
       <c r="D65">
-        <v>-0.09337226887599355</v>
+        <v>0.01465116912336462</v>
       </c>
       <c r="E65">
-        <v>0.00401275487654334</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.009024174599344025</v>
+      </c>
+      <c r="F65">
+        <v>-0.02819181668612718</v>
+      </c>
+      <c r="G65">
+        <v>-0.01170973996706805</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005334366810067899</v>
+        <v>-0.05405310189916815</v>
       </c>
       <c r="C66">
-        <v>-0.005748739968355325</v>
+        <v>0.1145284107788485</v>
       </c>
       <c r="D66">
-        <v>-0.1184690613206423</v>
+        <v>0.01157263733280876</v>
       </c>
       <c r="E66">
-        <v>0.03243318712433318</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02581305319240271</v>
+      </c>
+      <c r="F66">
+        <v>-0.04493231163919729</v>
+      </c>
+      <c r="G66">
+        <v>-0.01866863245272753</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001672579821021264</v>
+        <v>-0.05465499839406418</v>
       </c>
       <c r="C67">
-        <v>0.04510221032282363</v>
+        <v>0.03010089279576706</v>
       </c>
       <c r="D67">
-        <v>-0.02757074233098345</v>
+        <v>-0.006126290690608418</v>
       </c>
       <c r="E67">
-        <v>0.00305121838831003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.005254202971128956</v>
+      </c>
+      <c r="F67">
+        <v>0.004213477188278118</v>
+      </c>
+      <c r="G67">
+        <v>-0.0306343132466771</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03929481747170539</v>
+        <v>-0.1344262259167906</v>
       </c>
       <c r="C68">
-        <v>0.1929297169126721</v>
+        <v>-0.2691214741149048</v>
       </c>
       <c r="D68">
-        <v>0.1817473358524028</v>
+        <v>0.001332016375418114</v>
       </c>
       <c r="E68">
-        <v>-0.0009864902595465943</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01063856530685896</v>
+      </c>
+      <c r="F68">
+        <v>0.03794834139768202</v>
+      </c>
+      <c r="G68">
+        <v>-0.02096084802412256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003704264222278585</v>
+        <v>-0.07769929446146766</v>
       </c>
       <c r="C69">
-        <v>0.04667542843479913</v>
+        <v>0.06479571293451605</v>
       </c>
       <c r="D69">
-        <v>-0.05476285623046611</v>
+        <v>-0.009000336558142133</v>
       </c>
       <c r="E69">
-        <v>0.003232018670510599</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.03092604335735849</v>
+      </c>
+      <c r="F69">
+        <v>0.04155343415575623</v>
+      </c>
+      <c r="G69">
+        <v>-0.02566337273572089</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02728450990800821</v>
+        <v>-0.1333480229635914</v>
       </c>
       <c r="C71">
-        <v>0.1732193904813068</v>
+        <v>-0.2311848584075908</v>
       </c>
       <c r="D71">
-        <v>0.1600693346204306</v>
+        <v>-0.007904072004354227</v>
       </c>
       <c r="E71">
-        <v>-0.01269857226354806</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02549115891968121</v>
+      </c>
+      <c r="F71">
+        <v>0.01423242131702259</v>
+      </c>
+      <c r="G71">
+        <v>-0.03153657412482265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.003188513102746189</v>
+        <v>-0.0831169476407667</v>
       </c>
       <c r="C72">
-        <v>0.05197584071090181</v>
+        <v>0.07353638522700635</v>
       </c>
       <c r="D72">
-        <v>-0.1378130653149162</v>
+        <v>-0.008800671234937654</v>
       </c>
       <c r="E72">
-        <v>0.03542786174118005</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01308354243135163</v>
+      </c>
+      <c r="F72">
+        <v>-0.03899667403934692</v>
+      </c>
+      <c r="G72">
+        <v>-0.008616953172470116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04168929785742417</v>
+        <v>-0.4009584252487924</v>
       </c>
       <c r="C73">
-        <v>0.1942211052764614</v>
+        <v>0.09862094355376706</v>
       </c>
       <c r="D73">
-        <v>-0.139815813707432</v>
+        <v>0.01312728476408442</v>
       </c>
       <c r="E73">
-        <v>0.1165123437387528</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.05313203829880442</v>
+      </c>
+      <c r="F73">
+        <v>-0.5444309641715612</v>
+      </c>
+      <c r="G73">
+        <v>0.1264359366378022</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001643590772002948</v>
+        <v>-0.1177254582623124</v>
       </c>
       <c r="C74">
-        <v>0.09887402153287791</v>
+        <v>0.1164363096020366</v>
       </c>
       <c r="D74">
-        <v>-0.1305696333997324</v>
+        <v>-0.01032837223675185</v>
       </c>
       <c r="E74">
-        <v>0.0261558575423833</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.02519902123372331</v>
+      </c>
+      <c r="F74">
+        <v>0.08258010217626691</v>
+      </c>
+      <c r="G74">
+        <v>-0.03080777907402514</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.0008957602404286317</v>
+        <v>-0.2590585054251771</v>
       </c>
       <c r="C75">
-        <v>0.2305740218693567</v>
+        <v>0.1513421627243221</v>
       </c>
       <c r="D75">
-        <v>-0.2219252376160752</v>
+        <v>-0.03113791588708353</v>
       </c>
       <c r="E75">
-        <v>0.05393413518970467</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.07295807711792168</v>
+      </c>
+      <c r="F75">
+        <v>0.2042534838448376</v>
+      </c>
+      <c r="G75">
+        <v>0.04071080740473843</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.006097709116036416</v>
+        <v>-0.1358167709459459</v>
       </c>
       <c r="C76">
-        <v>0.1711869911669169</v>
+        <v>0.1256478468111999</v>
       </c>
       <c r="D76">
-        <v>-0.2114566794979285</v>
+        <v>-0.02116106712436213</v>
       </c>
       <c r="E76">
-        <v>0.01898964699570923</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.06776147490329719</v>
+      </c>
+      <c r="F76">
+        <v>0.1350603830864657</v>
+      </c>
+      <c r="G76">
+        <v>-0.01183620129193068</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01190299830333693</v>
+        <v>-0.06335573911996192</v>
       </c>
       <c r="C77">
-        <v>0.01505204104343707</v>
+        <v>0.06365476130051793</v>
       </c>
       <c r="D77">
-        <v>-0.06370915655337994</v>
+        <v>0.01262990851198901</v>
       </c>
       <c r="E77">
-        <v>0.01114757320236085</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04771736039749923</v>
+      </c>
+      <c r="F77">
+        <v>-0.01509170126324644</v>
+      </c>
+      <c r="G77">
+        <v>-0.0496476160728172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004005183627018975</v>
+        <v>-0.04011352305070138</v>
       </c>
       <c r="C78">
-        <v>0.01637751941866507</v>
+        <v>0.05018087342764513</v>
       </c>
       <c r="D78">
-        <v>-0.0621842714239533</v>
+        <v>0.005461109533519232</v>
       </c>
       <c r="E78">
-        <v>0.006975250032596128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02039885928450429</v>
+      </c>
+      <c r="F78">
+        <v>-0.04272261391865309</v>
+      </c>
+      <c r="G78">
+        <v>-0.03420138527827923</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01330621640619704</v>
+        <v>-0.05972061362837452</v>
       </c>
       <c r="C80">
-        <v>0.160845018730319</v>
+        <v>0.06625772238235536</v>
       </c>
       <c r="D80">
-        <v>-0.2402116658801404</v>
+        <v>0.01181065227073809</v>
       </c>
       <c r="E80">
-        <v>-0.8924048468615511</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03934869730846983</v>
+      </c>
+      <c r="F80">
+        <v>-0.03653640572002445</v>
+      </c>
+      <c r="G80">
+        <v>-0.9127651572271422</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0001452262651497796</v>
+        <v>-0.1455254104024557</v>
       </c>
       <c r="C81">
-        <v>0.145653353054182</v>
+        <v>0.09373281179255619</v>
       </c>
       <c r="D81">
-        <v>-0.1451471436894743</v>
+        <v>-0.01605582364953658</v>
       </c>
       <c r="E81">
-        <v>0.02546075460011489</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04004121860701091</v>
+      </c>
+      <c r="F81">
+        <v>0.1342595433809105</v>
+      </c>
+      <c r="G81">
+        <v>-0.01171013562121492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.05340580095708216</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03787761686936005</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.00283543491568448</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01921383867836172</v>
+      </c>
+      <c r="F82">
+        <v>0.008752880973735605</v>
+      </c>
+      <c r="G82">
+        <v>0.006118036763308704</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006393680244101401</v>
+        <v>-0.02798497342924751</v>
       </c>
       <c r="C83">
-        <v>0.03064906911967686</v>
+        <v>0.02094129009484312</v>
       </c>
       <c r="D83">
-        <v>-0.02433068931357259</v>
+        <v>0.005270819148320178</v>
       </c>
       <c r="E83">
-        <v>0.009847248358824119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02410835365428212</v>
+      </c>
+      <c r="F83">
+        <v>-0.01828247969378303</v>
+      </c>
+      <c r="G83">
+        <v>-0.0234469982970949</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.00770911876488499</v>
+        <v>-0.2341553058094356</v>
       </c>
       <c r="C85">
-        <v>0.1797043291034542</v>
+        <v>0.1504591353891233</v>
       </c>
       <c r="D85">
-        <v>-0.2364702919572359</v>
+        <v>-0.0195288465888037</v>
       </c>
       <c r="E85">
-        <v>0.05907589486091848</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1202241598717983</v>
+      </c>
+      <c r="F85">
+        <v>0.1780715939866056</v>
+      </c>
+      <c r="G85">
+        <v>0.0627196367948573</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005456572639359017</v>
+        <v>-0.01244572171216336</v>
       </c>
       <c r="C86">
-        <v>0.01426153481501707</v>
+        <v>0.01590202525166983</v>
       </c>
       <c r="D86">
-        <v>-0.008010066857016171</v>
+        <v>0.009309245236737649</v>
       </c>
       <c r="E86">
-        <v>0.01820955741058536</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03586087218538553</v>
+      </c>
+      <c r="F86">
+        <v>-0.03476768837873544</v>
+      </c>
+      <c r="G86">
+        <v>-0.05102459814162384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007333251340457406</v>
+        <v>-0.01595062287753821</v>
       </c>
       <c r="C87">
-        <v>0.01377469598420403</v>
+        <v>0.02785343054988175</v>
       </c>
       <c r="D87">
-        <v>-0.03901722227445505</v>
+        <v>0.01158065648078524</v>
       </c>
       <c r="E87">
-        <v>0.009099889935249798</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.07339318065174655</v>
+      </c>
+      <c r="F87">
+        <v>-0.04544620149094065</v>
+      </c>
+      <c r="G87">
+        <v>-0.04347678050574958</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02556916609243131</v>
+        <v>-0.09075889100540269</v>
       </c>
       <c r="C88">
-        <v>0.04526140341654133</v>
+        <v>0.05809916665385592</v>
       </c>
       <c r="D88">
-        <v>-0.0270882125659308</v>
+        <v>0.02147009188107949</v>
       </c>
       <c r="E88">
-        <v>0.007562503951364949</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01105425792870823</v>
+      </c>
+      <c r="F88">
+        <v>0.01223793886378025</v>
+      </c>
+      <c r="G88">
+        <v>-0.02138764720582398</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05233835396170147</v>
+        <v>-0.2205402069192396</v>
       </c>
       <c r="C89">
-        <v>0.3358977223531293</v>
+        <v>-0.3706002067154868</v>
       </c>
       <c r="D89">
-        <v>0.2865939507472612</v>
+        <v>-0.008850926702355343</v>
       </c>
       <c r="E89">
-        <v>-4.203134505279335e-05</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02293487830052903</v>
+      </c>
+      <c r="F89">
+        <v>0.03048348290393195</v>
+      </c>
+      <c r="G89">
+        <v>-0.03106359001855067</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.03973892902778606</v>
+        <v>-0.1901882129600994</v>
       </c>
       <c r="C90">
-        <v>0.2489611279917391</v>
+        <v>-0.3363967011596724</v>
       </c>
       <c r="D90">
-        <v>0.2607965500011071</v>
+        <v>-0.01211952977061659</v>
       </c>
       <c r="E90">
-        <v>0.003120668435949451</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.006232068059367664</v>
+      </c>
+      <c r="F90">
+        <v>0.0533808969982654</v>
+      </c>
+      <c r="G90">
+        <v>0.002984953492021549</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.00290346733816641</v>
+        <v>-0.2065027868868576</v>
       </c>
       <c r="C91">
-        <v>0.1928739551657101</v>
+        <v>0.1389706534972063</v>
       </c>
       <c r="D91">
-        <v>-0.2177696231425597</v>
+        <v>-0.02506151674749587</v>
       </c>
       <c r="E91">
-        <v>0.04006497710745423</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.08622970117439394</v>
+      </c>
+      <c r="F91">
+        <v>0.1805876241366424</v>
+      </c>
+      <c r="G91">
+        <v>0.001979486489870531</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.006017677380936821</v>
+        <v>-0.2018406132653294</v>
       </c>
       <c r="C92">
-        <v>0.3265628812588868</v>
+        <v>-0.2604040067430889</v>
       </c>
       <c r="D92">
-        <v>0.13548889839348</v>
+        <v>-0.04998635720908168</v>
       </c>
       <c r="E92">
-        <v>0.009696968294084682</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.002248266976112639</v>
+      </c>
+      <c r="F92">
+        <v>0.1190175870068509</v>
+      </c>
+      <c r="G92">
+        <v>-0.06448992217898755</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03681028971868738</v>
+        <v>-0.2170131726550543</v>
       </c>
       <c r="C93">
-        <v>0.2868188639005471</v>
+        <v>-0.3347043692755938</v>
       </c>
       <c r="D93">
-        <v>0.2629070120441936</v>
+        <v>-0.01911921768401153</v>
       </c>
       <c r="E93">
-        <v>0.0259060257691057</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.005659861194875505</v>
+      </c>
+      <c r="F93">
+        <v>0.0296579001278848</v>
+      </c>
+      <c r="G93">
+        <v>0.00143385799596247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01868113218139738</v>
+        <v>-0.2878554930541567</v>
       </c>
       <c r="C94">
-        <v>0.2397424644330891</v>
+        <v>0.1672615121213059</v>
       </c>
       <c r="D94">
-        <v>-0.2111363826135431</v>
+        <v>-0.01413146739136241</v>
       </c>
       <c r="E94">
-        <v>0.08951145979489586</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1106810889178907</v>
+      </c>
+      <c r="F94">
+        <v>0.425974163670564</v>
+      </c>
+      <c r="G94">
+        <v>0.1400494616607413</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006670738568424823</v>
+        <v>-0.08797154460323495</v>
       </c>
       <c r="C95">
-        <v>0.04567643830398747</v>
+        <v>0.07561870630360487</v>
       </c>
       <c r="D95">
-        <v>-0.07272068251820421</v>
+        <v>-0.006927997369893577</v>
       </c>
       <c r="E95">
-        <v>0.1239470772664525</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07597387966465266</v>
+      </c>
+      <c r="F95">
+        <v>-0.197639936503213</v>
+      </c>
+      <c r="G95">
+        <v>0.06746884583513046</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.004072203728532987</v>
+        <v>-0.2073480564495177</v>
       </c>
       <c r="C98">
-        <v>0.1708197388476718</v>
+        <v>0.04249370896653477</v>
       </c>
       <c r="D98">
-        <v>-0.1031320622874317</v>
+        <v>-0.01680213823289427</v>
       </c>
       <c r="E98">
-        <v>0.07491172542747639</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.0606735097165704</v>
+      </c>
+      <c r="F98">
+        <v>-0.2555085800102309</v>
+      </c>
+      <c r="G98">
+        <v>0.03139121883342638</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.00694472544267809</v>
+        <v>-0.01406832982122796</v>
       </c>
       <c r="C101">
-        <v>0.01839245282269402</v>
+        <v>0.02065245310922036</v>
       </c>
       <c r="D101">
-        <v>-0.01535003930585994</v>
+        <v>0.006944209804281388</v>
       </c>
       <c r="E101">
-        <v>-0.004988863854811692</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.005240151929807091</v>
+      </c>
+      <c r="F101">
+        <v>0.01415742197114359</v>
+      </c>
+      <c r="G101">
+        <v>-0.02895379453173646</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01294652033026797</v>
+        <v>-0.1219106930495824</v>
       </c>
       <c r="C102">
-        <v>0.1148866724529251</v>
+        <v>0.08247891180153426</v>
       </c>
       <c r="D102">
-        <v>-0.113365898209704</v>
+        <v>0.0004663278129635991</v>
       </c>
       <c r="E102">
-        <v>0.02984295951052682</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04044024637724421</v>
+      </c>
+      <c r="F102">
+        <v>0.05201150657669679</v>
+      </c>
+      <c r="G102">
+        <v>0.009861297210766505</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001870067211310081</v>
+        <v>-0.004468815759382383</v>
       </c>
       <c r="C103">
-        <v>0.018170415220273</v>
+        <v>0.004879358962700647</v>
       </c>
       <c r="D103">
-        <v>-0.02665900739029366</v>
+        <v>0.0004906517047202957</v>
       </c>
       <c r="E103">
-        <v>-0.01069305382215154</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001194655134681249</v>
+      </c>
+      <c r="F103">
+        <v>0.008832322083534138</v>
+      </c>
+      <c r="G103">
+        <v>-0.01748989550752661</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.986075165507559</v>
+        <v>-0.03633799108030653</v>
       </c>
       <c r="C104">
-        <v>-0.09509108688397627</v>
+        <v>-0.04285358797672994</v>
       </c>
       <c r="D104">
-        <v>-0.005069738691227693</v>
+        <v>0.9869054590719852</v>
       </c>
       <c r="E104">
-        <v>-0.026369017041444</v>
+        <v>-0.04291488333407327</v>
+      </c>
+      <c r="F104">
+        <v>0.04055404026931011</v>
+      </c>
+      <c r="G104">
+        <v>0.005372974454598897</v>
       </c>
     </row>
   </sheetData>
